--- a/variable names.xlsx
+++ b/variable names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jezdu\Desktop\TradingJournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64CC4DF5-B7A7-4B68-9E64-50A1D73A980E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01168D-5B3A-49C7-9148-165A8FF8DD7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9216" xr2:uid="{C8B7169B-D1B1-4EA0-A01E-1D39DAD796E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>param</t>
   </si>
@@ -112,6 +112,60 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>Input or output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input </t>
+  </si>
+  <si>
+    <t>Margin value</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>Rrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float </t>
+  </si>
+  <si>
+    <t>Market value</t>
+  </si>
+  <si>
+    <t>marketVal</t>
+  </si>
+  <si>
+    <t>targetVal</t>
+  </si>
+  <si>
+    <t>Target dollar value</t>
+  </si>
+  <si>
+    <t>Target percent value</t>
+  </si>
+  <si>
+    <t>Stop loss  dollar value</t>
+  </si>
+  <si>
+    <t>Stop loss percent value</t>
+  </si>
+  <si>
+    <t>tpercentVal</t>
+  </si>
+  <si>
+    <t>stoplossVal</t>
+  </si>
+  <si>
+    <t>percentVal</t>
   </si>
 </sst>
 </file>
@@ -463,19 +517,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA72AE42-D312-483F-A3CA-9FA3C1AF47A2}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -488,8 +542,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -499,8 +556,11 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -510,8 +570,11 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -521,8 +584,11 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -532,8 +598,11 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -543,8 +612,11 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -554,8 +626,11 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -565,8 +640,11 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -576,8 +654,11 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -587,8 +668,11 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -598,8 +682,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -609,8 +696,11 @@
       <c r="E13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -620,8 +710,11 @@
       <c r="E14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -630,6 +723,107 @@
       </c>
       <c r="E15" t="s">
         <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
